--- a/output_by_subject/CE319.xlsx
+++ b/output_by_subject/CE319.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,6 +3149,204 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1901CE24</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1901CE28</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1901CE29</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1901CE30</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1901CE34</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1901CE36</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1901CE38</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1901CE39</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1901CE40</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CE319</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
